--- a/5. Informe de defectos.xlsx
+++ b/5. Informe de defectos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10. SOFKAU\2. Programación\3. QA\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43703FC6-FF94-4F4D-A830-6222DD457A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72682BE1-71E2-4B16-A905-C013F631E0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Id_Bug</t>
   </si>
@@ -159,13 +160,160 @@
     <t>Critica</t>
   </si>
   <si>
-    <t>Alkosto</t>
-  </si>
-  <si>
-    <t>https://www.alkosto.com/</t>
-  </si>
-  <si>
     <t>Analista de:</t>
+  </si>
+  <si>
+    <t>https://www.carulla.com/</t>
+  </si>
+  <si>
+    <t>Carulla</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titulo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha del informe </t>
+  </si>
+  <si>
+    <t>Entidad revisora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probador que lo identifico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemento de prueba </t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase donde se observo el defecto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado esperado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado  real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado </t>
+  </si>
+  <si>
+    <t>BUG-002</t>
+  </si>
+  <si>
+    <t>BUG-003</t>
+  </si>
+  <si>
+    <t>BUG-004</t>
+  </si>
+  <si>
+    <t>Marzo-03-2023</t>
+  </si>
+  <si>
+    <t>Página web Carulla</t>
+  </si>
+  <si>
+    <t>Servicio de calculadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copiar la url que nos proporciona el servicio(WSDL) 
+2. Crear un proyecto SOAP y copiar la url 
+3. Realizar la peticion en el servicio Subtract
+4. Ingresar los números enteros: -1, -2
+5. Ejecutar la peticion </t>
+  </si>
+  <si>
+    <t>Muestra el resultado  igual a 2</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Resta de manera incorrecta dos números enteros.</t>
+  </si>
+  <si>
+    <t>CP_8</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>CP_5</t>
+  </si>
+  <si>
+    <t>Multiplicar un número entero por un decimal.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copiar la url que nos proporciona el servicio(WSDL) 
+2. Crear un proyecto SOAP y copiar la url 
+3. Realizar la peticion en el servicio Multiply
+4. Ingresar los números: 7, 0.9
+5. Ejecutar la peticion </t>
+  </si>
+  <si>
+    <t>Fallo</t>
+  </si>
+  <si>
+    <t>Referencia Caso de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra un error tipo 500, internal server error </t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>CP_15</t>
+  </si>
+  <si>
+    <t>No Convierte un número decimal de manera completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copiar la url que nos proporciona el servicio(WSDL) 
+2. Crear un proyecto SOAP y copiar la url 
+3. Realizar la peticion en el servicio NumberToWorld
+4. Ingresar los número decimal (3,3)
+5. Ejecutar la peticion </t>
+  </si>
+  <si>
+    <t>Tres y tres décimas</t>
+  </si>
+  <si>
+    <t>Tres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar productos al carrito cuando no tiene existencia en stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresar a la pagina web de carulla
+2.Iniciar sesion 
+3. Agregar productos al carrito de compra 
+</t>
+  </si>
+  <si>
+    <t>No este habilitado el producto para comprar</t>
+  </si>
+  <si>
+    <t>Se agrega el producto al carrito de compra, donde aparece un mensaje "Sin Stock"</t>
+  </si>
+  <si>
+    <t>Informe de defectos</t>
+  </si>
+  <si>
+    <t>Servicio conversión de números a texto</t>
+  </si>
+  <si>
+    <t>CP_23</t>
   </si>
 </sst>
 </file>
@@ -173,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +373,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +437,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -328,26 +532,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -369,8 +582,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -378,9 +591,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -388,16 +601,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{51CEC22C-49FF-40FB-80D0-C2218BD8EA5E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EA3BC98D-79B3-445E-A5A7-C0861D72679B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,624 +932,548 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18">
-        <v>44985</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="15">
+        <v>44988</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="12"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="12"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="12"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="12"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="2"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="2"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="12"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="2"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="2"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="2"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="2"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="12"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="12"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="12"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="12"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="12"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="12"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="12"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="22">
         <v>4</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="12"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="5">
+      <c r="B46" s="16"/>
+      <c r="C46" s="3">
         <v>4</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="12"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="16"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1305,4 +1484,358 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8527BC0C-24CB-43DF-8896-2A187AD0292C}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="36"/>
+    <col min="4" max="4" width="7" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36"/>
+    <col min="7" max="7" width="12.7109375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="36" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="36"/>
+    <col min="16" max="16" width="11" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="34">
+        <v>-3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>5</v>
+      </c>
+      <c r="R3" s="34">
+        <v>5</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>5</v>
+      </c>
+      <c r="R4" s="34">
+        <v>5</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>4</v>
+      </c>
+      <c r="R5" s="34">
+        <v>4</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>4</v>
+      </c>
+      <c r="R6" s="34">
+        <v>4</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>